--- a/data/pca/factorExposure/factorExposure_2016-01-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.015802428617254</v>
+        <v>0.016967494088851</v>
       </c>
       <c r="C2">
-        <v>-0.03070599701293695</v>
+        <v>-0.03323164847904564</v>
       </c>
       <c r="D2">
-        <v>0.09013421705085145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1167435834392388</v>
+      </c>
+      <c r="E2">
+        <v>-0.07970064919897041</v>
+      </c>
+      <c r="F2">
+        <v>0.007647958937853266</v>
+      </c>
+      <c r="G2">
+        <v>0.0529311146849381</v>
+      </c>
+      <c r="H2">
+        <v>-0.09645483134203291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01443927963589132</v>
+        <v>0.008443817918003324</v>
       </c>
       <c r="C3">
-        <v>-0.05539467919948519</v>
+        <v>-0.03463623836454519</v>
       </c>
       <c r="D3">
-        <v>0.1411160607174352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07955360689068378</v>
+      </c>
+      <c r="E3">
+        <v>-0.08626725785377916</v>
+      </c>
+      <c r="F3">
+        <v>0.04083050910268653</v>
+      </c>
+      <c r="G3">
+        <v>0.08955433092157947</v>
+      </c>
+      <c r="H3">
+        <v>-0.02306622046046987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04686840932772143</v>
+        <v>0.05282545920318631</v>
       </c>
       <c r="C4">
-        <v>-0.02697588369161463</v>
+        <v>-0.06156177327018229</v>
       </c>
       <c r="D4">
-        <v>0.1219073482191674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1356835702961401</v>
+      </c>
+      <c r="E4">
+        <v>-0.06271035023074245</v>
+      </c>
+      <c r="F4">
+        <v>0.01820289444084509</v>
+      </c>
+      <c r="G4">
+        <v>-0.02372401515444783</v>
+      </c>
+      <c r="H4">
+        <v>0.0289835740330909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04411521015774433</v>
+        <v>0.04090650816170008</v>
       </c>
       <c r="C6">
-        <v>-0.00216532260239306</v>
+        <v>-0.02529208260546919</v>
       </c>
       <c r="D6">
-        <v>0.1227798830567201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1260791018040299</v>
+      </c>
+      <c r="E6">
+        <v>-0.04135461600540678</v>
+      </c>
+      <c r="F6">
+        <v>0.0137692429206124</v>
+      </c>
+      <c r="G6">
+        <v>0.01685065500230976</v>
+      </c>
+      <c r="H6">
+        <v>-0.006882710063202703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02059869484707013</v>
+        <v>0.01515397830051655</v>
       </c>
       <c r="C7">
-        <v>-0.007679035820617765</v>
+        <v>-0.02998277325729305</v>
       </c>
       <c r="D7">
-        <v>0.08797998426653261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09316657127040381</v>
+      </c>
+      <c r="E7">
+        <v>-0.04394484325941633</v>
+      </c>
+      <c r="F7">
+        <v>0.01462588309013329</v>
+      </c>
+      <c r="G7">
+        <v>-0.01707830451849784</v>
+      </c>
+      <c r="H7">
+        <v>-0.1041154509527507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009546259022670115</v>
+        <v>0.007999801744890464</v>
       </c>
       <c r="C8">
-        <v>-0.02927773420360021</v>
+        <v>-0.03677794736477061</v>
       </c>
       <c r="D8">
-        <v>0.06441516599732801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07421151712912277</v>
+      </c>
+      <c r="E8">
+        <v>-0.04289507811444461</v>
+      </c>
+      <c r="F8">
+        <v>0.02952005211170706</v>
+      </c>
+      <c r="G8">
+        <v>0.009719008019853141</v>
+      </c>
+      <c r="H8">
+        <v>-0.03101976149335937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03834616266785419</v>
+        <v>0.0406322246924895</v>
       </c>
       <c r="C9">
-        <v>-0.02892299974673961</v>
+        <v>-0.05689466412280412</v>
       </c>
       <c r="D9">
-        <v>0.1052709143606585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1175676002622099</v>
+      </c>
+      <c r="E9">
+        <v>-0.04601587239810505</v>
+      </c>
+      <c r="F9">
+        <v>-0.001011894210907365</v>
+      </c>
+      <c r="G9">
+        <v>-0.01673351797752997</v>
+      </c>
+      <c r="H9">
+        <v>-0.007112303547078485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09893326245340824</v>
+        <v>0.1331917126162712</v>
       </c>
       <c r="C10">
-        <v>0.1981816592393468</v>
+        <v>0.1915249014765212</v>
       </c>
       <c r="D10">
-        <v>-0.009696578699648583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.003167599821515949</v>
+      </c>
+      <c r="E10">
+        <v>-0.05104739541696982</v>
+      </c>
+      <c r="F10">
+        <v>0.01382502498805804</v>
+      </c>
+      <c r="G10">
+        <v>-0.04064698974238785</v>
+      </c>
+      <c r="H10">
+        <v>0.007370266471879893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03282478442410883</v>
+        <v>0.02846994145851364</v>
       </c>
       <c r="C11">
-        <v>-0.03583833480358446</v>
+        <v>-0.0425853563251724</v>
       </c>
       <c r="D11">
-        <v>0.06307296038714874</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06014650975983483</v>
+      </c>
+      <c r="E11">
+        <v>-0.007278192311204154</v>
+      </c>
+      <c r="F11">
+        <v>0.006637573799087419</v>
+      </c>
+      <c r="G11">
+        <v>-0.001713855254791175</v>
+      </c>
+      <c r="H11">
+        <v>-0.05164416240067923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03745414087026262</v>
+        <v>0.03276289961825665</v>
       </c>
       <c r="C12">
-        <v>-0.03467423217282222</v>
+        <v>-0.04371188241365161</v>
       </c>
       <c r="D12">
-        <v>0.06044295492574148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05710682225379914</v>
+      </c>
+      <c r="E12">
+        <v>-0.01856076618374401</v>
+      </c>
+      <c r="F12">
+        <v>0.000773776265183035</v>
+      </c>
+      <c r="G12">
+        <v>-0.003592284364352005</v>
+      </c>
+      <c r="H12">
+        <v>-0.06188066265832484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01310542745457485</v>
+        <v>0.01910927823641536</v>
       </c>
       <c r="C13">
-        <v>-0.02326966032572947</v>
+        <v>-0.03783854435089162</v>
       </c>
       <c r="D13">
-        <v>0.1205097958598604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.141910961402811</v>
+      </c>
+      <c r="E13">
+        <v>-0.07653016742444378</v>
+      </c>
+      <c r="F13">
+        <v>0.02552753587622069</v>
+      </c>
+      <c r="G13">
+        <v>0.001991849068830266</v>
+      </c>
+      <c r="H13">
+        <v>-0.09208746776875297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.009836404350033879</v>
+        <v>0.007213814905413771</v>
       </c>
       <c r="C14">
-        <v>-0.0128847145655165</v>
+        <v>-0.02367158658864445</v>
       </c>
       <c r="D14">
-        <v>0.0808262527740954</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08479017049326018</v>
+      </c>
+      <c r="E14">
+        <v>-0.04217779463047008</v>
+      </c>
+      <c r="F14">
+        <v>-0.01264428617613283</v>
+      </c>
+      <c r="G14">
+        <v>0.002153974890290239</v>
+      </c>
+      <c r="H14">
+        <v>-0.09987477446117199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001611608217094923</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.008151324118493021</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.02712155608409052</v>
+      </c>
+      <c r="E15">
+        <v>-0.006945885074193156</v>
+      </c>
+      <c r="F15">
+        <v>-0.003093167460826687</v>
+      </c>
+      <c r="G15">
+        <v>0.007528178275025588</v>
+      </c>
+      <c r="H15">
+        <v>-0.01214796475714683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03473123336996036</v>
+        <v>0.02924105180193376</v>
       </c>
       <c r="C16">
-        <v>-0.0375601373453709</v>
+        <v>-0.04346260851377652</v>
       </c>
       <c r="D16">
-        <v>0.06858791084448831</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06185283707763146</v>
+      </c>
+      <c r="E16">
+        <v>-0.02111213804411613</v>
+      </c>
+      <c r="F16">
+        <v>-0.006580691480074791</v>
+      </c>
+      <c r="G16">
+        <v>0.002855732388853973</v>
+      </c>
+      <c r="H16">
+        <v>-0.05867602637601738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.008908046386037281</v>
+        <v>0.01037603379732831</v>
       </c>
       <c r="C19">
-        <v>-0.01791378417405798</v>
+        <v>-0.02266571282580233</v>
       </c>
       <c r="D19">
-        <v>0.1666441829883145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1307630028399826</v>
+      </c>
+      <c r="E19">
+        <v>-0.07137641574669022</v>
+      </c>
+      <c r="F19">
+        <v>-0.02634299705077071</v>
+      </c>
+      <c r="G19">
+        <v>0.01541931959188548</v>
+      </c>
+      <c r="H19">
+        <v>-0.05310188294153382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01804896261580129</v>
+        <v>0.01547514210214445</v>
       </c>
       <c r="C20">
-        <v>-0.01604732990084912</v>
+        <v>-0.03183729910242494</v>
       </c>
       <c r="D20">
-        <v>0.08458962649090015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09460714835868234</v>
+      </c>
+      <c r="E20">
+        <v>-0.06229604492250997</v>
+      </c>
+      <c r="F20">
+        <v>-0.00708778501145107</v>
+      </c>
+      <c r="G20">
+        <v>-0.0005436966042978991</v>
+      </c>
+      <c r="H20">
+        <v>-0.05529103079719164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.008585209794472866</v>
+        <v>0.01427508280504004</v>
       </c>
       <c r="C21">
-        <v>-0.01621448656234685</v>
+        <v>-0.03545080001787111</v>
       </c>
       <c r="D21">
-        <v>0.1235646553935048</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1360889927018218</v>
+      </c>
+      <c r="E21">
+        <v>-0.09915085244894074</v>
+      </c>
+      <c r="F21">
+        <v>-0.01323775980848754</v>
+      </c>
+      <c r="G21">
+        <v>-0.03671026610363729</v>
+      </c>
+      <c r="H21">
+        <v>-0.1076604895012209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001334343391465643</v>
+        <v>0.004930792779983523</v>
       </c>
       <c r="C22">
-        <v>-0.01425897761252362</v>
+        <v>-0.03874630994271386</v>
       </c>
       <c r="D22">
-        <v>0.06390448562514287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1231231941429247</v>
+      </c>
+      <c r="E22">
+        <v>-0.0338600058199536</v>
+      </c>
+      <c r="F22">
+        <v>0.0757518660006932</v>
+      </c>
+      <c r="G22">
+        <v>0.06079941665568074</v>
+      </c>
+      <c r="H22">
+        <v>0.02891054471213083</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001373326885747541</v>
+        <v>0.005022484844815284</v>
       </c>
       <c r="C23">
-        <v>-0.01427168523436123</v>
+        <v>-0.03919178332759284</v>
       </c>
       <c r="D23">
-        <v>0.06341893674933298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1225816957483417</v>
+      </c>
+      <c r="E23">
+        <v>-0.03406869072898378</v>
+      </c>
+      <c r="F23">
+        <v>0.07566034247673011</v>
+      </c>
+      <c r="G23">
+        <v>0.05993639333945698</v>
+      </c>
+      <c r="H23">
+        <v>0.02915547314189595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03372254729448858</v>
+        <v>0.03113297015430954</v>
       </c>
       <c r="C24">
-        <v>-0.03985941216322194</v>
+        <v>-0.05287103471489864</v>
       </c>
       <c r="D24">
-        <v>0.06995104517498552</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06644242453345889</v>
+      </c>
+      <c r="E24">
+        <v>-0.02454064153802613</v>
+      </c>
+      <c r="F24">
+        <v>-0.004457079838024722</v>
+      </c>
+      <c r="G24">
+        <v>-0.007483581284461769</v>
+      </c>
+      <c r="H24">
+        <v>-0.06786603646802902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04081808857875219</v>
+        <v>0.0359592689758803</v>
       </c>
       <c r="C25">
-        <v>-0.04498751398298712</v>
+        <v>-0.05217637768291371</v>
       </c>
       <c r="D25">
-        <v>0.07004245489149717</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06320154041597296</v>
+      </c>
+      <c r="E25">
+        <v>-0.02571964591076539</v>
+      </c>
+      <c r="F25">
+        <v>0.006697719527826573</v>
+      </c>
+      <c r="G25">
+        <v>-0.01336174728081198</v>
+      </c>
+      <c r="H25">
+        <v>-0.05544746962238072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02238737542476564</v>
+        <v>0.02081261027946206</v>
       </c>
       <c r="C26">
-        <v>-0.0008219486172282693</v>
+        <v>-0.01585298526643435</v>
       </c>
       <c r="D26">
-        <v>0.05129408501322676</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06364205062463285</v>
+      </c>
+      <c r="E26">
+        <v>-0.03310203227731411</v>
+      </c>
+      <c r="F26">
+        <v>-0.006554527884600557</v>
+      </c>
+      <c r="G26">
+        <v>0.006397245257728518</v>
+      </c>
+      <c r="H26">
+        <v>-0.05670839546007309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1362823790506291</v>
+        <v>0.1871196035751214</v>
       </c>
       <c r="C28">
-        <v>0.2739133161773012</v>
+        <v>0.2564869742053674</v>
       </c>
       <c r="D28">
-        <v>-0.05559383460154581</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01721100526743598</v>
+      </c>
+      <c r="E28">
+        <v>-0.07243643328909953</v>
+      </c>
+      <c r="F28">
+        <v>-0.004187846486017137</v>
+      </c>
+      <c r="G28">
+        <v>-0.07833755399674001</v>
+      </c>
+      <c r="H28">
+        <v>-0.006555995844691307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.003746495258303987</v>
+        <v>0.006188864234996418</v>
       </c>
       <c r="C29">
-        <v>-0.01273334485408831</v>
+        <v>-0.02278608749656362</v>
       </c>
       <c r="D29">
-        <v>0.06348200440387319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.07852539487467913</v>
+      </c>
+      <c r="E29">
+        <v>-0.04495499014468616</v>
+      </c>
+      <c r="F29">
+        <v>0.0007963566102895578</v>
+      </c>
+      <c r="G29">
+        <v>-0.01434123664562194</v>
+      </c>
+      <c r="H29">
+        <v>-0.1002067633004646</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04180019248154627</v>
+        <v>0.04294159597826209</v>
       </c>
       <c r="C30">
-        <v>-0.02589166668566491</v>
+        <v>-0.05634106218729876</v>
       </c>
       <c r="D30">
-        <v>0.1598770170447851</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1740316481747701</v>
+      </c>
+      <c r="E30">
+        <v>-0.03386990781427243</v>
+      </c>
+      <c r="F30">
+        <v>0.004832104916820513</v>
+      </c>
+      <c r="G30">
+        <v>0.04227146097203886</v>
+      </c>
+      <c r="H30">
+        <v>-0.01076210697390466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06591070470322051</v>
+        <v>0.05707416552647514</v>
       </c>
       <c r="C31">
-        <v>-0.0454641060845956</v>
+        <v>-0.07139622950335642</v>
       </c>
       <c r="D31">
-        <v>0.06035049780405176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05214736055696979</v>
+      </c>
+      <c r="E31">
+        <v>-0.04290981162780366</v>
+      </c>
+      <c r="F31">
+        <v>0.04128273818717523</v>
+      </c>
+      <c r="G31">
+        <v>-0.007024367594604043</v>
+      </c>
+      <c r="H31">
+        <v>-0.0263159765958327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.001029274798748437</v>
+        <v>0.009058470791483361</v>
       </c>
       <c r="C32">
-        <v>0.003699726880969826</v>
+        <v>-0.01330132478668426</v>
       </c>
       <c r="D32">
-        <v>0.05251934962663859</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09120147589117404</v>
+      </c>
+      <c r="E32">
+        <v>-0.09525653801996146</v>
+      </c>
+      <c r="F32">
+        <v>-0.006721437102103209</v>
+      </c>
+      <c r="G32">
+        <v>-0.05301401958727595</v>
+      </c>
+      <c r="H32">
+        <v>-0.09421559333553194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.0245555182169744</v>
+        <v>0.02396128798591404</v>
       </c>
       <c r="C33">
-        <v>-0.01913101052098794</v>
+        <v>-0.04142749814536469</v>
       </c>
       <c r="D33">
-        <v>0.1311816298145688</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.133188750853635</v>
+      </c>
+      <c r="E33">
+        <v>-0.05937616790555572</v>
+      </c>
+      <c r="F33">
+        <v>0.01587506809380584</v>
+      </c>
+      <c r="G33">
+        <v>-0.0004298360434146072</v>
+      </c>
+      <c r="H33">
+        <v>-0.06334813750365172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03040670770729216</v>
+        <v>0.02841530853322657</v>
       </c>
       <c r="C34">
-        <v>-0.05547737591343991</v>
+        <v>-0.06051401151539411</v>
       </c>
       <c r="D34">
-        <v>0.06893076146242505</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.06120371596036779</v>
+      </c>
+      <c r="E34">
+        <v>-0.006423078751998997</v>
+      </c>
+      <c r="F34">
+        <v>-0.003561058108724994</v>
+      </c>
+      <c r="G34">
+        <v>-0.00984684221871372</v>
+      </c>
+      <c r="H34">
+        <v>-0.07382354829233156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0006146237340004059</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0002247133448290741</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0031242295663524</v>
+      </c>
+      <c r="E35">
+        <v>-0.000494838612540797</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002500064633528432</v>
+      </c>
+      <c r="G35">
+        <v>-5.655130893913039e-06</v>
+      </c>
+      <c r="H35">
+        <v>-0.002897381584260427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02037775659393544</v>
+        <v>0.01835967067623262</v>
       </c>
       <c r="C36">
-        <v>0.001226193186743626</v>
+        <v>-0.01456972963539144</v>
       </c>
       <c r="D36">
-        <v>0.06927956078442146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07625990216146081</v>
+      </c>
+      <c r="E36">
+        <v>-0.04171584059513177</v>
+      </c>
+      <c r="F36">
+        <v>-0.005079000584488809</v>
+      </c>
+      <c r="G36">
+        <v>-0.009337892572645341</v>
+      </c>
+      <c r="H36">
+        <v>-0.0513616905164471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02657736090550741</v>
+        <v>0.02190022098026671</v>
       </c>
       <c r="C38">
-        <v>-0.01640854460808564</v>
+        <v>-0.02126353761800224</v>
       </c>
       <c r="D38">
-        <v>0.05315175001064505</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0590712757017041</v>
+      </c>
+      <c r="E38">
+        <v>-0.04440870494491087</v>
+      </c>
+      <c r="F38">
+        <v>-0.004340467191456863</v>
+      </c>
+      <c r="G38">
+        <v>0.03527871352926887</v>
+      </c>
+      <c r="H38">
+        <v>-0.03579214504235853</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04000435584724991</v>
+        <v>0.03678640057796553</v>
       </c>
       <c r="C39">
-        <v>-0.04672669690121484</v>
+        <v>-0.06239387469086952</v>
       </c>
       <c r="D39">
-        <v>0.09193313379491154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1029195071623348</v>
+      </c>
+      <c r="E39">
+        <v>-0.02159960122324182</v>
+      </c>
+      <c r="F39">
+        <v>-0.02172175508197482</v>
+      </c>
+      <c r="G39">
+        <v>0.006553014751288356</v>
+      </c>
+      <c r="H39">
+        <v>-0.08661674256158533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01602160939434275</v>
+        <v>0.01476622070702438</v>
       </c>
       <c r="C40">
-        <v>-0.03549423651823465</v>
+        <v>-0.03539796506201964</v>
       </c>
       <c r="D40">
-        <v>0.07410989252618604</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08450604750078555</v>
+      </c>
+      <c r="E40">
+        <v>-0.08274675598967038</v>
+      </c>
+      <c r="F40">
+        <v>0.05029664861774163</v>
+      </c>
+      <c r="G40">
+        <v>0.0292648648941262</v>
+      </c>
+      <c r="H40">
+        <v>-0.1564219866955167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02532837763946309</v>
+        <v>0.02279570840677556</v>
       </c>
       <c r="C41">
-        <v>0.009443416130206066</v>
+        <v>-0.008151317372597972</v>
       </c>
       <c r="D41">
-        <v>0.06803388474988743</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0578295548795924</v>
+      </c>
+      <c r="E41">
+        <v>-0.05629234073261215</v>
+      </c>
+      <c r="F41">
+        <v>-0.001832576239704247</v>
+      </c>
+      <c r="G41">
+        <v>0.006471682480386322</v>
+      </c>
+      <c r="H41">
+        <v>-0.04270507643725155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03483382692651221</v>
+        <v>0.02543499897315679</v>
       </c>
       <c r="C43">
-        <v>-0.0004988432395169778</v>
+        <v>-0.01789908801039788</v>
       </c>
       <c r="D43">
-        <v>0.1071860290467232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08846122741086722</v>
+      </c>
+      <c r="E43">
+        <v>-0.04472532868256708</v>
+      </c>
+      <c r="F43">
+        <v>0.0039684513075321</v>
+      </c>
+      <c r="G43">
+        <v>0.01026220417032677</v>
+      </c>
+      <c r="H43">
+        <v>-0.05983972674969296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01189715635624024</v>
+        <v>0.0164620030324547</v>
       </c>
       <c r="C44">
-        <v>-0.0337709742001957</v>
+        <v>-0.04151205200876499</v>
       </c>
       <c r="D44">
-        <v>0.08165040533988917</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09526276309383014</v>
+      </c>
+      <c r="E44">
+        <v>-0.07992124996966242</v>
+      </c>
+      <c r="F44">
+        <v>-0.002871389035743686</v>
+      </c>
+      <c r="G44">
+        <v>-0.009953998227998185</v>
+      </c>
+      <c r="H44">
+        <v>-0.06997140315039546</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01861483997485631</v>
+        <v>0.01620070504183056</v>
       </c>
       <c r="C46">
-        <v>-0.01289957979772112</v>
+        <v>-0.0293905047935073</v>
       </c>
       <c r="D46">
-        <v>0.07268102342637267</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08824009863802787</v>
+      </c>
+      <c r="E46">
+        <v>-0.04840296011574969</v>
+      </c>
+      <c r="F46">
+        <v>-0.0219711735706088</v>
+      </c>
+      <c r="G46">
+        <v>-0.02155798329484727</v>
+      </c>
+      <c r="H46">
+        <v>-0.09972912298859897</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09200273819874315</v>
+        <v>0.08600179494945646</v>
       </c>
       <c r="C47">
-        <v>-0.06499167421778626</v>
+        <v>-0.0880143940993596</v>
       </c>
       <c r="D47">
-        <v>0.04015059187571889</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0323985305012536</v>
+      </c>
+      <c r="E47">
+        <v>-0.03964702758773906</v>
+      </c>
+      <c r="F47">
+        <v>0.02259255386932893</v>
+      </c>
+      <c r="G47">
+        <v>-0.05814672147606332</v>
+      </c>
+      <c r="H47">
+        <v>-0.005562102904517109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02034407842782609</v>
+        <v>0.01925433229093692</v>
       </c>
       <c r="C48">
-        <v>-0.003062714605365382</v>
+        <v>-0.01867910350459527</v>
       </c>
       <c r="D48">
-        <v>0.06907206695777844</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07835922160090346</v>
+      </c>
+      <c r="E48">
+        <v>-0.05676524048892028</v>
+      </c>
+      <c r="F48">
+        <v>-0.01509425142050452</v>
+      </c>
+      <c r="G48">
+        <v>-0.005526757753183606</v>
+      </c>
+      <c r="H48">
+        <v>-0.05244451004115212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07688560962493897</v>
+        <v>0.0614065149415399</v>
       </c>
       <c r="C50">
-        <v>-0.05818839148144543</v>
+        <v>-0.06932336243890368</v>
       </c>
       <c r="D50">
-        <v>0.06752286680350567</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05772451961048879</v>
+      </c>
+      <c r="E50">
+        <v>-0.04907918261690446</v>
+      </c>
+      <c r="F50">
+        <v>0.04223326889626954</v>
+      </c>
+      <c r="G50">
+        <v>0.009522124682014162</v>
+      </c>
+      <c r="H50">
+        <v>-0.02899547104219196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.00730660226766235</v>
+        <v>0.007226057192376626</v>
       </c>
       <c r="C51">
-        <v>-0.01012795784871785</v>
+        <v>-0.01431250265160949</v>
       </c>
       <c r="D51">
-        <v>0.07880255357825584</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08678815675692746</v>
+      </c>
+      <c r="E51">
+        <v>-0.03331647154844018</v>
+      </c>
+      <c r="F51">
+        <v>-0.003478923303948284</v>
+      </c>
+      <c r="G51">
+        <v>0.01284371530951299</v>
+      </c>
+      <c r="H51">
+        <v>-0.0795334848336757</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07499065121644791</v>
+        <v>0.08669461196330214</v>
       </c>
       <c r="C53">
-        <v>-0.08751291244920294</v>
+        <v>-0.09988512008901744</v>
       </c>
       <c r="D53">
-        <v>0.01829642657940172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003954118034814382</v>
+      </c>
+      <c r="E53">
+        <v>-0.09876971759569267</v>
+      </c>
+      <c r="F53">
+        <v>0.0279424271720096</v>
+      </c>
+      <c r="G53">
+        <v>-0.09639221917086931</v>
+      </c>
+      <c r="H53">
+        <v>0.02373910242607318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03382940533732865</v>
+        <v>0.02702600194137155</v>
       </c>
       <c r="C54">
-        <v>-0.02111333060328879</v>
+        <v>-0.03495170854015611</v>
       </c>
       <c r="D54">
-        <v>0.08324704226944911</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08835802366715986</v>
+      </c>
+      <c r="E54">
+        <v>-0.04829782953335838</v>
+      </c>
+      <c r="F54">
+        <v>-0.0178256923485969</v>
+      </c>
+      <c r="G54">
+        <v>0.00605467941672623</v>
+      </c>
+      <c r="H54">
+        <v>-0.1096972034850899</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08557815434480377</v>
+        <v>0.08474568153592063</v>
       </c>
       <c r="C55">
-        <v>-0.0657557740906327</v>
+        <v>-0.08059004139776813</v>
       </c>
       <c r="D55">
-        <v>-0.002640053411169315</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01303568331244113</v>
+      </c>
+      <c r="E55">
+        <v>-0.0589456909762277</v>
+      </c>
+      <c r="F55">
+        <v>0.03096752987451499</v>
+      </c>
+      <c r="G55">
+        <v>-0.04602490581375467</v>
+      </c>
+      <c r="H55">
+        <v>0.02413813151499918</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.134080333094434</v>
+        <v>0.1325512749796009</v>
       </c>
       <c r="C56">
-        <v>-0.1008126900608363</v>
+        <v>-0.1249543746319501</v>
       </c>
       <c r="D56">
-        <v>0.005246904788887227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01438548283257386</v>
+      </c>
+      <c r="E56">
+        <v>-0.06017451316036177</v>
+      </c>
+      <c r="F56">
+        <v>0.01764185731808495</v>
+      </c>
+      <c r="G56">
+        <v>-0.06594973223702459</v>
+      </c>
+      <c r="H56">
+        <v>0.02231705987255995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.0357851761696934</v>
+        <v>0.03711068031960386</v>
       </c>
       <c r="C58">
-        <v>0.03611652756442874</v>
+        <v>-0.01676788012223999</v>
       </c>
       <c r="D58">
-        <v>0.3859141720791809</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3739728708359938</v>
+      </c>
+      <c r="E58">
+        <v>-0.2251729896138361</v>
+      </c>
+      <c r="F58">
+        <v>0.1238608556338248</v>
+      </c>
+      <c r="G58">
+        <v>0.3856902672949611</v>
+      </c>
+      <c r="H58">
+        <v>0.423975519170439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1386840276552204</v>
+        <v>0.1694990312530049</v>
       </c>
       <c r="C59">
-        <v>0.1943949508699298</v>
+        <v>0.1726508159077309</v>
       </c>
       <c r="D59">
-        <v>0.01086730293742993</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0457028949935578</v>
+      </c>
+      <c r="E59">
+        <v>-0.01681490428435924</v>
+      </c>
+      <c r="F59">
+        <v>-0.03474067562894927</v>
+      </c>
+      <c r="G59">
+        <v>0.0004816813630237238</v>
+      </c>
+      <c r="H59">
+        <v>0.02109149913679964</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2578097770036192</v>
+        <v>0.2341521235258066</v>
       </c>
       <c r="C60">
-        <v>-0.06042406146354529</v>
+        <v>-0.09547803633470367</v>
       </c>
       <c r="D60">
-        <v>0.1648611184874408</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.127172636739585</v>
+      </c>
+      <c r="E60">
+        <v>0.3531230829811471</v>
+      </c>
+      <c r="F60">
+        <v>0.08101184397044506</v>
+      </c>
+      <c r="G60">
+        <v>-0.02291784635195784</v>
+      </c>
+      <c r="H60">
+        <v>0.05905430483799951</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04553876665439652</v>
+        <v>0.04175227475733522</v>
       </c>
       <c r="C61">
-        <v>-0.04590930325149081</v>
+        <v>-0.05772258792357191</v>
       </c>
       <c r="D61">
-        <v>0.1021138923000042</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09554419870831254</v>
+      </c>
+      <c r="E61">
+        <v>-0.02014996267758406</v>
+      </c>
+      <c r="F61">
+        <v>-0.01040520400130688</v>
+      </c>
+      <c r="G61">
+        <v>-0.01346388873057546</v>
+      </c>
+      <c r="H61">
+        <v>-0.07739166852900636</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01501233021190298</v>
+        <v>0.01556280092451597</v>
       </c>
       <c r="C63">
-        <v>-0.01301118813762095</v>
+        <v>-0.0295299743180279</v>
       </c>
       <c r="D63">
-        <v>0.05747425715552903</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0695783520962535</v>
+      </c>
+      <c r="E63">
+        <v>-0.0521847588944276</v>
+      </c>
+      <c r="F63">
+        <v>0.02410677866856775</v>
+      </c>
+      <c r="G63">
+        <v>0.01199748487033485</v>
+      </c>
+      <c r="H63">
+        <v>-0.04226608812544308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0548181200348951</v>
+        <v>0.05489235859100944</v>
       </c>
       <c r="C64">
-        <v>-0.05936981283360763</v>
+        <v>-0.07692530923661302</v>
       </c>
       <c r="D64">
-        <v>0.06516750811165302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05557639569733014</v>
+      </c>
+      <c r="E64">
+        <v>-0.03797753264635769</v>
+      </c>
+      <c r="F64">
+        <v>-0.01913340485139943</v>
+      </c>
+      <c r="G64">
+        <v>-0.0425476745077772</v>
+      </c>
+      <c r="H64">
+        <v>-0.04814285404030946</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.06128179276300329</v>
+        <v>0.05279840666661963</v>
       </c>
       <c r="C65">
-        <v>0.001638769946296697</v>
+        <v>-0.02434380364756681</v>
       </c>
       <c r="D65">
-        <v>0.1103263181810352</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1174539280300006</v>
+      </c>
+      <c r="E65">
+        <v>-0.009230562281261248</v>
+      </c>
+      <c r="F65">
+        <v>0.01957278104031331</v>
+      </c>
+      <c r="G65">
+        <v>0.04076690965189218</v>
+      </c>
+      <c r="H65">
+        <v>0.03407145801439288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04428421323596154</v>
+        <v>0.04350004720336909</v>
       </c>
       <c r="C66">
-        <v>-0.04665897286574838</v>
+        <v>-0.06914922436700156</v>
       </c>
       <c r="D66">
-        <v>0.1155184324418766</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1287888438724497</v>
+      </c>
+      <c r="E66">
+        <v>-0.02465175332537683</v>
+      </c>
+      <c r="F66">
+        <v>-0.01262079411006682</v>
+      </c>
+      <c r="G66">
+        <v>0.01075682849302908</v>
+      </c>
+      <c r="H66">
+        <v>-0.06166844012398415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04491536785866811</v>
+        <v>0.0381160425418707</v>
       </c>
       <c r="C67">
-        <v>-0.02699358838465234</v>
+        <v>-0.02774356751772578</v>
       </c>
       <c r="D67">
-        <v>0.02745583751873922</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02448606404873152</v>
+      </c>
+      <c r="E67">
+        <v>-0.02749279057901624</v>
+      </c>
+      <c r="F67">
+        <v>0.002646726292198275</v>
+      </c>
+      <c r="G67">
+        <v>0.02972719336007817</v>
+      </c>
+      <c r="H67">
+        <v>-0.03711412686507354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1708188325814152</v>
+        <v>0.1930610340204238</v>
       </c>
       <c r="C68">
-        <v>0.2613051448097812</v>
+        <v>0.210616534799732</v>
       </c>
       <c r="D68">
-        <v>-0.02994750888077571</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01388262376573156</v>
+      </c>
+      <c r="E68">
+        <v>-0.0528165977281196</v>
+      </c>
+      <c r="F68">
+        <v>0.02350287446694021</v>
+      </c>
+      <c r="G68">
+        <v>0.007888514951106295</v>
+      </c>
+      <c r="H68">
+        <v>0.009854310507715821</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08499404959994618</v>
+        <v>0.07825679688452911</v>
       </c>
       <c r="C69">
-        <v>-0.07714200335186326</v>
+        <v>-0.09778739009699979</v>
       </c>
       <c r="D69">
-        <v>0.05451444324761166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04640196941121422</v>
+      </c>
+      <c r="E69">
+        <v>-0.03109340018844585</v>
+      </c>
+      <c r="F69">
+        <v>0.001279088216630463</v>
+      </c>
+      <c r="G69">
+        <v>-0.03890195239844303</v>
+      </c>
+      <c r="H69">
+        <v>-0.02115012132339022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1422557127988586</v>
+        <v>0.1766095106387132</v>
       </c>
       <c r="C71">
-        <v>0.2500240473909103</v>
+        <v>0.2213402345713995</v>
       </c>
       <c r="D71">
-        <v>0.006007957369127146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03498638109116607</v>
+      </c>
+      <c r="E71">
+        <v>-0.05112953259327425</v>
+      </c>
+      <c r="F71">
+        <v>0.02205160280732752</v>
+      </c>
+      <c r="G71">
+        <v>-0.0380709070572033</v>
+      </c>
+      <c r="H71">
+        <v>-0.01400939009946743</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09784038316026497</v>
+        <v>0.101560147543473</v>
       </c>
       <c r="C72">
-        <v>-0.03523479356926454</v>
+        <v>-0.0625923372980883</v>
       </c>
       <c r="D72">
-        <v>0.09582776159541091</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09576169923774189</v>
+      </c>
+      <c r="E72">
+        <v>0.0240511393054713</v>
+      </c>
+      <c r="F72">
+        <v>0.03178367097668914</v>
+      </c>
+      <c r="G72">
+        <v>-0.02286000884849849</v>
+      </c>
+      <c r="H72">
+        <v>-0.02886279124999214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.315164152822177</v>
+        <v>0.267139170905161</v>
       </c>
       <c r="C73">
-        <v>-0.01007353599284407</v>
+        <v>-0.07830202723124287</v>
       </c>
       <c r="D73">
-        <v>0.2782195220932218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.2040308599546895</v>
+      </c>
+      <c r="E73">
+        <v>0.6690384986260791</v>
+      </c>
+      <c r="F73">
+        <v>0.09602420461929798</v>
+      </c>
+      <c r="G73">
+        <v>0.03979820013981955</v>
+      </c>
+      <c r="H73">
+        <v>0.1141782209937087</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1034763684851029</v>
+        <v>0.1021281993935534</v>
       </c>
       <c r="C74">
-        <v>-0.06437756355283419</v>
+        <v>-0.08855095682737758</v>
       </c>
       <c r="D74">
-        <v>0.02074299231546065</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.003897143663617647</v>
+      </c>
+      <c r="E74">
+        <v>-0.08393759145526841</v>
+      </c>
+      <c r="F74">
+        <v>0.04083973098022225</v>
+      </c>
+      <c r="G74">
+        <v>-0.06086200798505459</v>
+      </c>
+      <c r="H74">
+        <v>0.05707692912698063</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2430970340004796</v>
+        <v>0.2382375836266064</v>
       </c>
       <c r="C75">
-        <v>-0.1407614976198253</v>
+        <v>-0.1656383613658527</v>
       </c>
       <c r="D75">
-        <v>-0.06327688554859894</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1104508061944755</v>
+      </c>
+      <c r="E75">
+        <v>-0.07307246978824457</v>
+      </c>
+      <c r="F75">
+        <v>-0.01061324168149133</v>
+      </c>
+      <c r="G75">
+        <v>-0.09752534835039808</v>
+      </c>
+      <c r="H75">
+        <v>0.152581565612594</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1243981762225049</v>
+        <v>0.1261622243916374</v>
       </c>
       <c r="C76">
-        <v>-0.09012886926770219</v>
+        <v>-0.1132026480718164</v>
       </c>
       <c r="D76">
-        <v>-0.007712785498184741</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0217071840345138</v>
+      </c>
+      <c r="E76">
+        <v>-0.1153016976388489</v>
+      </c>
+      <c r="F76">
+        <v>0.01221096078654501</v>
+      </c>
+      <c r="G76">
+        <v>-0.06384418428783625</v>
+      </c>
+      <c r="H76">
+        <v>0.02397654629936712</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07319454326791372</v>
+        <v>0.06589853242247319</v>
       </c>
       <c r="C77">
-        <v>-0.05531148646374879</v>
+        <v>-0.06609476867287066</v>
       </c>
       <c r="D77">
-        <v>0.07491819417041315</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.129130831843886</v>
+      </c>
+      <c r="E77">
+        <v>-0.1220143639548549</v>
+      </c>
+      <c r="F77">
+        <v>-0.29009776581175</v>
+      </c>
+      <c r="G77">
+        <v>0.0304384452980524</v>
+      </c>
+      <c r="H77">
+        <v>0.1986646885786404</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03641808712311077</v>
+        <v>0.03994617998487228</v>
       </c>
       <c r="C78">
-        <v>-0.03914105870985982</v>
+        <v>-0.05992081866434698</v>
       </c>
       <c r="D78">
-        <v>0.1091288641822788</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1233235457347835</v>
+      </c>
+      <c r="E78">
+        <v>-0.03121034478402094</v>
+      </c>
+      <c r="F78">
+        <v>0.01700635698843681</v>
+      </c>
+      <c r="G78">
+        <v>-0.02972184158817513</v>
+      </c>
+      <c r="H78">
+        <v>-0.04429375356149547</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002021716719782514</v>
+        <v>0.0409675800016597</v>
       </c>
       <c r="C79">
-        <v>0.001651276591400357</v>
+        <v>-0.08414228215771281</v>
       </c>
       <c r="D79">
-        <v>0.01719109767112309</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03289600150345667</v>
+      </c>
+      <c r="E79">
+        <v>-0.1659789703615297</v>
+      </c>
+      <c r="F79">
+        <v>0.07556922972245553</v>
+      </c>
+      <c r="G79">
+        <v>-0.5517829653311057</v>
+      </c>
+      <c r="H79">
+        <v>0.4896274821952387</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03051059800031037</v>
+        <v>0.02530445164755011</v>
       </c>
       <c r="C80">
-        <v>-0.01256048893828137</v>
+        <v>-0.03461200726262977</v>
       </c>
       <c r="D80">
-        <v>0.02796720813552296</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03443916042812487</v>
+      </c>
+      <c r="E80">
+        <v>-0.01969409969185733</v>
+      </c>
+      <c r="F80">
+        <v>-0.04139636504844692</v>
+      </c>
+      <c r="G80">
+        <v>0.04779624842030662</v>
+      </c>
+      <c r="H80">
+        <v>-0.04016248170586353</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1398772709609466</v>
+        <v>0.1314183343290703</v>
       </c>
       <c r="C81">
-        <v>-0.1036299679620258</v>
+        <v>-0.1184667908545274</v>
       </c>
       <c r="D81">
-        <v>-0.03988090747265242</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07056959037863442</v>
+      </c>
+      <c r="E81">
+        <v>-0.1113727102814011</v>
+      </c>
+      <c r="F81">
+        <v>0.003529230984269556</v>
+      </c>
+      <c r="G81">
+        <v>-0.05486835478298231</v>
+      </c>
+      <c r="H81">
+        <v>0.05042799685955433</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2804978455965799</v>
+        <v>0.2476745638449736</v>
       </c>
       <c r="C82">
-        <v>-0.2763056857545008</v>
+        <v>-0.2499722307867774</v>
       </c>
       <c r="D82">
-        <v>-0.1949780907416982</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2152273628059159</v>
+      </c>
+      <c r="E82">
+        <v>-0.0006680586931537166</v>
+      </c>
+      <c r="F82">
+        <v>0.03987445000696731</v>
+      </c>
+      <c r="G82">
+        <v>-0.2419911895326147</v>
+      </c>
+      <c r="H82">
+        <v>-0.4677945519436572</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0283251188563612</v>
+        <v>0.02288244902289627</v>
       </c>
       <c r="C83">
-        <v>-0.04797754347609572</v>
+        <v>-0.05116114178366055</v>
       </c>
       <c r="D83">
-        <v>0.05788185641233571</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05158573876836022</v>
+      </c>
+      <c r="E83">
+        <v>-0.006881477153205797</v>
+      </c>
+      <c r="F83">
+        <v>-0.02412535244288625</v>
+      </c>
+      <c r="G83">
+        <v>-0.002557374726347189</v>
+      </c>
+      <c r="H83">
+        <v>-0.03172992164775494</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2.681230845062348e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004230049083464071</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.009059260473231507</v>
+      </c>
+      <c r="E84">
+        <v>-0.01081481382220535</v>
+      </c>
+      <c r="F84">
+        <v>0.003039374800538213</v>
+      </c>
+      <c r="G84">
+        <v>0.008162199927189135</v>
+      </c>
+      <c r="H84">
+        <v>-0.005450508782322902</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1810775099385921</v>
+        <v>0.1633350673831388</v>
       </c>
       <c r="C85">
-        <v>-0.09788866992897512</v>
+        <v>-0.1305272584275859</v>
       </c>
       <c r="D85">
-        <v>-0.04925975864095588</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08011866956665283</v>
+      </c>
+      <c r="E85">
+        <v>-0.04057568516373912</v>
+      </c>
+      <c r="F85">
+        <v>0.03250261729951417</v>
+      </c>
+      <c r="G85">
+        <v>-0.0966164300553764</v>
+      </c>
+      <c r="H85">
+        <v>0.1258987182276499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01229166694387909</v>
+        <v>0.01878484852627891</v>
       </c>
       <c r="C86">
-        <v>-0.02076359176804989</v>
+        <v>-0.02081963699394388</v>
       </c>
       <c r="D86">
-        <v>0.1361783899611415</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1228156087120911</v>
+      </c>
+      <c r="E86">
+        <v>-0.0181246075597592</v>
+      </c>
+      <c r="F86">
+        <v>-0.008904155705180595</v>
+      </c>
+      <c r="G86">
+        <v>-0.03283459091050207</v>
+      </c>
+      <c r="H86">
+        <v>-0.07162184848640214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02563878830106927</v>
+        <v>0.03162122929034421</v>
       </c>
       <c r="C87">
-        <v>0.001041905312676032</v>
+        <v>-0.02449822662007568</v>
       </c>
       <c r="D87">
-        <v>0.08943368628181803</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1241446604476214</v>
+      </c>
+      <c r="E87">
+        <v>-0.08882188513887029</v>
+      </c>
+      <c r="F87">
+        <v>-0.02145974613961798</v>
+      </c>
+      <c r="G87">
+        <v>0.007379427794779778</v>
+      </c>
+      <c r="H87">
+        <v>-0.03538361147378003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.08290973233794212</v>
+        <v>0.07434508032643902</v>
       </c>
       <c r="C88">
-        <v>-0.0405264311830514</v>
+        <v>-0.05749224226593956</v>
       </c>
       <c r="D88">
-        <v>0.04122448033356356</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02667010017863236</v>
+      </c>
+      <c r="E88">
+        <v>-0.02984453188597857</v>
+      </c>
+      <c r="F88">
+        <v>0.00497663845160253</v>
+      </c>
+      <c r="G88">
+        <v>0.01138276101404513</v>
+      </c>
+      <c r="H88">
+        <v>-0.01482550828944399</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2064054220932538</v>
+        <v>0.2645532008304046</v>
       </c>
       <c r="C89">
-        <v>0.3573744910322194</v>
+        <v>0.3561431148031073</v>
       </c>
       <c r="D89">
-        <v>-0.05941322532110757</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01509893485618828</v>
+      </c>
+      <c r="E89">
+        <v>-0.0656257488449383</v>
+      </c>
+      <c r="F89">
+        <v>-0.05010036928928668</v>
+      </c>
+      <c r="G89">
+        <v>-0.02730341748986001</v>
+      </c>
+      <c r="H89">
+        <v>-0.06019954533489938</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1992591655760839</v>
+        <v>0.2333931577673385</v>
       </c>
       <c r="C90">
-        <v>0.2890430457491561</v>
+        <v>0.2654697539062791</v>
       </c>
       <c r="D90">
-        <v>-0.06086354190521369</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.00749234253273383</v>
+      </c>
+      <c r="E90">
+        <v>-0.05579265787727122</v>
+      </c>
+      <c r="F90">
+        <v>0.002774004822582595</v>
+      </c>
+      <c r="G90">
+        <v>0.03618643985042364</v>
+      </c>
+      <c r="H90">
+        <v>-0.05007886261023274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1781912272293352</v>
+        <v>0.1678966807337108</v>
       </c>
       <c r="C91">
-        <v>-0.1379436142419626</v>
+        <v>-0.1597735135942848</v>
       </c>
       <c r="D91">
-        <v>-0.06666149204378971</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08476366328291342</v>
+      </c>
+      <c r="E91">
+        <v>-0.09534807618666652</v>
+      </c>
+      <c r="F91">
+        <v>0.01616112712235616</v>
+      </c>
+      <c r="G91">
+        <v>-0.08786640610640456</v>
+      </c>
+      <c r="H91">
+        <v>0.1338755110599067</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1673488436199954</v>
+        <v>0.2102397932725749</v>
       </c>
       <c r="C92">
-        <v>0.2876403611542322</v>
+        <v>0.2758836643362077</v>
       </c>
       <c r="D92">
-        <v>-0.01760333220139619</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01340721607897395</v>
+      </c>
+      <c r="E92">
+        <v>-0.08704515188337621</v>
+      </c>
+      <c r="F92">
+        <v>-0.03328141451181189</v>
+      </c>
+      <c r="G92">
+        <v>-0.001251985518402466</v>
+      </c>
+      <c r="H92">
+        <v>-0.0326093246488031</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2303061338594593</v>
+        <v>0.2571738803655456</v>
       </c>
       <c r="C93">
-        <v>0.3162918275439862</v>
+        <v>0.278316734898045</v>
       </c>
       <c r="D93">
-        <v>-0.03805576577761056</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01478472017717916</v>
+      </c>
+      <c r="E93">
+        <v>-0.0267372801662269</v>
+      </c>
+      <c r="F93">
+        <v>0.03226820009836599</v>
+      </c>
+      <c r="G93">
+        <v>-0.01302740878184456</v>
+      </c>
+      <c r="H93">
+        <v>-0.0117017725400655</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3861785645275582</v>
+        <v>0.3365504481383292</v>
       </c>
       <c r="C94">
-        <v>-0.2624603409051878</v>
+        <v>-0.2569779025350107</v>
       </c>
       <c r="D94">
-        <v>-0.4639433595439793</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4465677161590392</v>
+      </c>
+      <c r="E94">
+        <v>-0.1091636999277653</v>
+      </c>
+      <c r="F94">
+        <v>-0.02976627997755942</v>
+      </c>
+      <c r="G94">
+        <v>0.6088397623346007</v>
+      </c>
+      <c r="H94">
+        <v>0.04521184880876495</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.08424673460936222</v>
+        <v>0.07329800200964701</v>
       </c>
       <c r="C95">
-        <v>-0.06418970363295699</v>
+        <v>-0.05959322991990411</v>
       </c>
       <c r="D95">
-        <v>0.11551545478313</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08677241963915336</v>
+      </c>
+      <c r="E95">
+        <v>0.1029917094866762</v>
+      </c>
+      <c r="F95">
+        <v>-0.9085338750437625</v>
+      </c>
+      <c r="G95">
+        <v>-0.03156074915073632</v>
+      </c>
+      <c r="H95">
+        <v>0.05043772626564208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.179263307930536</v>
+        <v>0.167359226792806</v>
       </c>
       <c r="C98">
-        <v>-0.01348361096597983</v>
+        <v>-0.05364890059766982</v>
       </c>
       <c r="D98">
-        <v>0.1582661217773169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1359672896777266</v>
+      </c>
+      <c r="E98">
+        <v>0.2920181180175823</v>
+      </c>
+      <c r="F98">
+        <v>0.08521209327285922</v>
+      </c>
+      <c r="G98">
+        <v>-0.0274373189165857</v>
+      </c>
+      <c r="H98">
+        <v>0.01874469766231473</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003593103870126358</v>
+        <v>0.006354340689098584</v>
       </c>
       <c r="C101">
-        <v>-0.01205114687891803</v>
+        <v>-0.02179337449409947</v>
       </c>
       <c r="D101">
-        <v>0.06309784048336588</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.07840244905651356</v>
+      </c>
+      <c r="E101">
+        <v>-0.04595644218465383</v>
+      </c>
+      <c r="F101">
+        <v>-0.0001780305163766365</v>
+      </c>
+      <c r="G101">
+        <v>-0.0149888564383965</v>
+      </c>
+      <c r="H101">
+        <v>-0.1002307837785251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1264205395233694</v>
+        <v>0.1125999566944756</v>
       </c>
       <c r="C102">
-        <v>-0.1188855047909303</v>
+        <v>-0.11771421538262</v>
       </c>
       <c r="D102">
-        <v>-0.03113070412793019</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05137843557403059</v>
+      </c>
+      <c r="E102">
+        <v>-0.03115919062226295</v>
+      </c>
+      <c r="F102">
+        <v>-0.02124523959276627</v>
+      </c>
+      <c r="G102">
+        <v>-0.05809389858477756</v>
+      </c>
+      <c r="H102">
+        <v>-0.006966297208200376</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
